--- a/Spells.xlsx
+++ b/Spells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pnp Zeug\Academia Polonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DDDBA27-552E-4812-8106-AFC012828219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC096FE-282E-49F5-842A-DA2943E32BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{B9594E96-EF11-42E1-B880-A7045AD2A116}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9594E96-EF11-42E1-B880-A7045AD2A116}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Spells - sortiert nach fu" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="287">
   <si>
     <t>Aussprache</t>
   </si>
@@ -495,12 +495,6 @@
     <t>Erde</t>
   </si>
   <si>
-    <t>Beschleunige</t>
-  </si>
-  <si>
-    <t>Verlangsame</t>
-  </si>
-  <si>
     <t>Geist übertragen</t>
   </si>
   <si>
@@ -880,6 +874,27 @@
   </si>
   <si>
     <t>Anhalten</t>
+  </si>
+  <si>
+    <t>Muk</t>
+  </si>
+  <si>
+    <t>Muskeln</t>
+  </si>
+  <si>
+    <t>Vergrößern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Beschleunigen</t>
+  </si>
+  <si>
+    <t>Verlangsamen</t>
+  </si>
+  <si>
+    <t>Objekt unter 1 quadrat Meter</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C08D10D-CADA-4F31-BF0C-9FFCB862D5E1}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,13 +1333,13 @@
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,16 +1347,16 @@
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,29 +1364,29 @@
         <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1379,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>109</v>
@@ -1388,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,13 +1414,13 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,7 +1445,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -1439,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1454,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1673,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,10 +1736,10 @@
         <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,10 +1753,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,14 +1764,14 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,14 +1779,14 @@
         <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1786,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,14 +1884,14 @@
         <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,14 +1899,14 @@
         <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,14 +1914,14 @@
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1914,14 +1929,14 @@
         <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,14 +1944,14 @@
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,14 +1959,14 @@
         <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
         <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,14 +1974,14 @@
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,14 +1989,14 @@
         <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,14 +2034,14 @@
         <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,59 +2049,59 @@
         <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,7 +2139,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>60</v>
@@ -2133,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2195,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,14 +2218,14 @@
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1">
         <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,14 +2233,14 @@
         <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2267,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>107</v>
@@ -2276,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2284,7 +2299,7 @@
         <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>108</v>
@@ -2293,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2325,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,7 +2378,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>133</v>
@@ -2372,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,7 +2395,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>133</v>
@@ -2389,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,14 +2412,14 @@
         <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,14 +2427,14 @@
         <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,14 +2442,14 @@
         <v>119</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,14 +2457,14 @@
         <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
         <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2457,14 +2472,14 @@
         <v>124</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2472,14 +2487,14 @@
         <v>127</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,7 +2502,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>134</v>
@@ -2496,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,7 +2519,7 @@
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>135</v>
@@ -2513,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,7 +2536,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>136</v>
@@ -2530,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,7 +2553,7 @@
         <v>132</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>137</v>
@@ -2547,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,14 +2570,14 @@
         <v>140</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,14 +2585,14 @@
         <v>141</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,16 +2600,16 @@
         <v>142</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,16 +2617,16 @@
         <v>143</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,16 +2634,16 @@
         <v>144</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,16 +2651,16 @@
         <v>145</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,16 +2668,16 @@
         <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,14 +2685,14 @@
         <v>148</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,174 +2700,176 @@
         <v>150</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D89" s="1">
         <v>4</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D91" s="1">
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D93" s="1">
         <v>4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1">
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C97" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D97" s="1">
         <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1">
         <v>4</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2869,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,103 +2903,103 @@
         <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" t="s">
         <v>232</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C103" t="s">
-        <v>234</v>
-      </c>
       <c r="D103" s="1">
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" t="s">
         <v>235</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C104" t="s">
-        <v>237</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" t="s">
         <v>242</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C107" t="s">
-        <v>244</v>
-      </c>
       <c r="D107" s="1">
         <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,226 +3007,232 @@
         <v>128</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" t="s">
         <v>250</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C110" t="s">
-        <v>252</v>
-      </c>
       <c r="D110" s="1">
         <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" t="s">
         <v>271</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C119" t="s">
-        <v>273</v>
-      </c>
       <c r="D119" s="1">
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="1">
-        <v>2</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D123" s="1">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Spells.xlsx
+++ b/Spells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pnp Zeug\Academia Polonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC096FE-282E-49F5-842A-DA2943E32BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A17DB90-5485-41CB-B5B2-29CF4E30E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9594E96-EF11-42E1-B880-A7045AD2A116}"/>
   </bookViews>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C08D10D-CADA-4F31-BF0C-9FFCB862D5E1}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>

--- a/Spells.xlsx
+++ b/Spells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pnp Zeug\Academia Polonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A17DB90-5485-41CB-B5B2-29CF4E30E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186B384-3A19-4816-A7BC-098963834DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9594E96-EF11-42E1-B880-A7045AD2A116}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="286">
   <si>
     <t>Aussprache</t>
   </si>
@@ -883,9 +883,6 @@
   </si>
   <si>
     <t>Vergrößern</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Beschleunigen</t>
@@ -1282,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C08D10D-CADA-4F31-BF0C-9FFCB862D5E1}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,7 +2567,7 @@
         <v>140</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
@@ -2585,7 +2582,7 @@
         <v>141</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
@@ -2833,7 +2830,7 @@
         <v>181</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D97" s="1">
         <v>2</v>

--- a/Spells.xlsx
+++ b/Spells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pnp Zeug\Academia Polonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186B384-3A19-4816-A7BC-098963834DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD4BD5C-9540-4FA1-9B7F-FAEE4EBB62D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9594E96-EF11-42E1-B880-A7045AD2A116}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C08D10D-CADA-4F31-BF0C-9FFCB862D5E1}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
